--- a/SprintBacklog.xlsx
+++ b/SprintBacklog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shane\Documents\College\Fall 2018\POO SD\Testy\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F3F4E98B-6953-48D2-B4D1-91FC5B2FFCDF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2DBCE6E0-04D6-4405-A7BA-6DDFE6C0AD54}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="10140" xr2:uid="{CA794E77-CD3F-4E74-B305-22302D3F0C68}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Story</t>
   </si>
@@ -64,6 +64,12 @@
   </si>
   <si>
     <t>Sprint Backlog</t>
+  </si>
+  <si>
+    <t>As a developer, I want to create a prototype of the UI.</t>
+  </si>
+  <si>
+    <t>The prototype is created to make it easier to implement in Android Studio.</t>
   </si>
 </sst>
 </file>
@@ -134,7 +140,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -157,6 +163,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -164,7 +181,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -181,6 +198,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
@@ -501,7 +522,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,11 +611,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
